--- a/Excel_Sheet/Books1.xlsx
+++ b/Excel_Sheet/Books1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19215" windowHeight="7545"/>
+    <workbookView windowWidth="19815" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>jagdeesh@albertapayments.com</t>
   </si>
@@ -116,6 +117,24 @@
   </si>
   <si>
     <t>Password 20</t>
+  </si>
+  <si>
+    <t>VENDOR NAME</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>Selenium Vendor</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Masule</t>
   </si>
 </sst>
 </file>
@@ -124,8 +143,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -154,6 +173,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -161,14 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,9 +257,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,16 +277,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,29 +294,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,19 +309,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,145 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,32 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,11 +536,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,13 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +589,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,12 +608,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,127 +626,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1242,4 +1261,52 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="9.57142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>